--- a/tests/test_xls/sheet_txns/test_select/test_select_yyyy/expected_result.xlsx
+++ b/tests/test_xls/sheet_txns/test_select/test_select_yyyy/expected_result.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -438,7 +438,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="5" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="22" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
-        <v>43101</v>
+        <v>43104</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="G2" s="3" t="n">
-        <v>-663.77</v>
+        <v>-510.47</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -548,11 +548,11 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
-        <v>43104</v>
+        <v>43108</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>United States Treasury</t>
+          <t>City of San Francisco</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -562,11 +562,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Federal Taxes</t>
+          <t>Local Taxes</t>
         </is>
       </c>
       <c r="G3" s="3" t="n">
-        <v>-42.6</v>
+        <v>-456.7</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -587,21 +587,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Local Utility Co</t>
+          <t>City of San Francisco</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Local Taxes</t>
+        </is>
+      </c>
       <c r="G4" s="3" t="n">
-        <v>-710.99</v>
+        <v>-521.26</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -614,7 +618,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" s="2" t="n">
-        <v>43112</v>
+        <v>43115</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -632,7 +636,7 @@
         </is>
       </c>
       <c r="G5" s="3" t="n">
-        <v>-784.83</v>
+        <v>-573.74</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -649,25 +653,25 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
-        <v>43112</v>
+        <v>43116</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Local Utility Co</t>
+          <t>Highland Apartments</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" s="3" t="n">
-        <v>-870.6</v>
+        <v>-301.84</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -680,7 +684,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" s="2" t="n">
-        <v>43118</v>
+        <v>43116</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -694,7 +698,7 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" s="3" t="n">
-        <v>-846.05</v>
+        <v>-693.96</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -711,7 +715,7 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" s="2" t="n">
-        <v>43120</v>
+        <v>43119</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -725,7 +729,7 @@
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" s="3" t="n">
-        <v>-151.45</v>
+        <v>-581.71</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -740,31 +744,23 @@
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Check 92</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" s="2" t="n">
-        <v>43132</v>
+        <v>43123</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>City of San Francisco</t>
+          <t>Highland Apartments</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Taxes</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Local Taxes</t>
-        </is>
-      </c>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" s="3" t="n">
-        <v>-675.04</v>
+        <v>-786.88</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -781,7 +777,7 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" s="2" t="n">
-        <v>43134</v>
+        <v>43130</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -795,7 +791,7 @@
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" s="3" t="n">
-        <v>-509.06</v>
+        <v>-43.17</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -812,7 +808,7 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
-        <v>43145</v>
+        <v>43130</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -826,7 +822,7 @@
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" s="3" t="n">
-        <v>-751.09</v>
+        <v>-881.1900000000001</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -841,31 +837,23 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Check 344</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
-        <v>43151</v>
+        <v>43131</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>United States Treasury</t>
+          <t>Highland Apartments</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Taxes</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Federal Taxes</t>
-        </is>
-      </c>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" s="3" t="n">
-        <v>-654.75</v>
+        <v>-931.38</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -882,25 +870,21 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
-        <v>43154</v>
+        <v>43132</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>United States Treasury</t>
+          <t>Highland Apartments</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Taxes</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Federal Taxes</t>
-        </is>
-      </c>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" s="3" t="n">
-        <v>-880.97</v>
+        <v>-761.1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -917,25 +901,25 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" s="2" t="n">
-        <v>43156</v>
+        <v>43133</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Local Utility Co</t>
+          <t>Highland Apartments</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" s="3" t="n">
-        <v>-357.01</v>
+        <v>-657.66</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -948,21 +932,25 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" s="2" t="n">
-        <v>43159</v>
+        <v>43138</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Highland Apartments</t>
+          <t>United States Treasury</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Federal Taxes</t>
+        </is>
+      </c>
       <c r="G15" s="3" t="n">
-        <v>-8.83</v>
+        <v>-343.18</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -977,38 +965,34 @@
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Check 346</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" s="2" t="n">
-        <v>43159</v>
+        <v>43139</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>United States Treasury</t>
+          <t>Local Utility Co</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Taxes</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Federal Taxes</t>
-        </is>
-      </c>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" s="3" t="n">
-        <v>-149.89</v>
+        <v>-288.75</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Discretionary</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>Essential</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Memo 4</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
     </row>
@@ -1016,31 +1000,31 @@
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Check 539</t>
+        </is>
+      </c>
       <c r="C17" s="2" t="n">
-        <v>43162</v>
+        <v>43148</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>United States Treasury</t>
+          <t>Local Utility Co</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Taxes</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Federal Taxes</t>
-        </is>
-      </c>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" s="3" t="n">
-        <v>-523.21</v>
+        <v>-864.8200000000001</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1053,29 +1037,25 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" s="2" t="n">
-        <v>43164</v>
+        <v>43149</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>City of San Francisco</t>
+          <t>Local Utility Co</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Taxes</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Local Taxes</t>
-        </is>
-      </c>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" s="3" t="n">
-        <v>-710.96</v>
+        <v>-403.22</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1088,7 +1068,7 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" s="2" t="n">
-        <v>43165</v>
+        <v>43153</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1102,7 +1082,7 @@
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" s="3" t="n">
-        <v>-759.72</v>
+        <v>-254.14</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1119,21 +1099,25 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" s="2" t="n">
-        <v>43170</v>
+        <v>43156</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Highland Apartments</t>
+          <t>City of San Francisco</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Local Taxes</t>
+        </is>
+      </c>
       <c r="G20" s="3" t="n">
-        <v>-38.43</v>
+        <v>-795.63</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1150,7 +1134,7 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" s="2" t="n">
-        <v>43182</v>
+        <v>43165</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1164,7 +1148,7 @@
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" s="3" t="n">
-        <v>-287.72</v>
+        <v>-858.17</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1181,25 +1165,21 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" s="2" t="n">
-        <v>43185</v>
+        <v>43165</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>United States Treasury</t>
+          <t>Highland Apartments</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Taxes</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Federal Taxes</t>
-        </is>
-      </c>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" s="3" t="n">
-        <v>-598.74</v>
+        <v>-379.23</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1216,21 +1196,25 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" s="2" t="n">
-        <v>43189</v>
+        <v>43166</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Highland Apartments</t>
+          <t>United States Treasury</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Federal Taxes</t>
+        </is>
+      </c>
       <c r="G23" s="3" t="n">
-        <v>-36.63</v>
+        <v>-260.63</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1247,25 +1231,25 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" s="2" t="n">
-        <v>43200</v>
+        <v>43168</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Local Utility Co</t>
+          <t>Highland Apartments</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" s="3" t="n">
-        <v>-490.42</v>
+        <v>-341</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -1278,29 +1262,25 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" s="2" t="n">
-        <v>43203</v>
+        <v>43177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>City of San Francisco</t>
+          <t>Local Utility Co</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Taxes</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Local Taxes</t>
-        </is>
-      </c>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" s="3" t="n">
-        <v>-505.57</v>
+        <v>-21.34</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -1313,7 +1293,7 @@
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" s="2" t="n">
-        <v>43209</v>
+        <v>43178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1327,7 +1307,7 @@
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" s="3" t="n">
-        <v>-970.5599999999999</v>
+        <v>-485.68</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1344,7 +1324,7 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" s="2" t="n">
-        <v>43211</v>
+        <v>43178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1358,18 +1338,14 @@
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" s="3" t="n">
-        <v>-903.46</v>
+        <v>-566.22</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
           <t>Essential</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Memo 11</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
     </row>
@@ -1379,7 +1355,7 @@
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" s="2" t="n">
-        <v>43216</v>
+        <v>43182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1393,7 +1369,7 @@
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" s="3" t="n">
-        <v>-470.92</v>
+        <v>-471.76</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1410,29 +1386,25 @@
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" s="2" t="n">
-        <v>43217</v>
+        <v>43183</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>United States Treasury</t>
+          <t>Local Utility Co</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Taxes</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Federal Taxes</t>
-        </is>
-      </c>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" s="3" t="n">
-        <v>-23.92</v>
+        <v>-221.51</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -1445,7 +1417,7 @@
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" s="2" t="n">
-        <v>43218</v>
+        <v>43187</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1463,7 +1435,7 @@
         </is>
       </c>
       <c r="G30" s="3" t="n">
-        <v>-401.5</v>
+        <v>-553.37</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1478,27 +1450,27 @@
       <c r="A31" t="n">
         <v>30</v>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Check 441</t>
+        </is>
+      </c>
       <c r="C31" s="2" t="n">
-        <v>43221</v>
+        <v>43197</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>United States Treasury</t>
+          <t>Highland Apartments</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Taxes</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Federal Taxes</t>
-        </is>
-      </c>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" s="3" t="n">
-        <v>-840.15</v>
+        <v>-343.14</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1515,25 +1487,29 @@
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" s="2" t="n">
-        <v>43223</v>
+        <v>43203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Local Utility Co</t>
+          <t>United States Treasury</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Federal Taxes</t>
+        </is>
+      </c>
       <c r="G32" s="3" t="n">
-        <v>-808.01</v>
+        <v>-893.35</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -1546,25 +1522,29 @@
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" s="2" t="n">
-        <v>43227</v>
+        <v>43206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Local Utility Co</t>
+          <t>United States Treasury</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Federal Taxes</t>
+        </is>
+      </c>
       <c r="G33" s="3" t="n">
-        <v>-265.37</v>
+        <v>-175.75</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -1577,7 +1557,7 @@
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" s="2" t="n">
-        <v>43230</v>
+        <v>43210</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1595,7 +1575,7 @@
         </is>
       </c>
       <c r="G34" s="3" t="n">
-        <v>-392</v>
+        <v>-990.3</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1612,29 +1592,25 @@
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" s="2" t="n">
-        <v>43233</v>
+        <v>43214</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>City of San Francisco</t>
+          <t>Local Utility Co</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Taxes</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Local Taxes</t>
-        </is>
-      </c>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" s="3" t="n">
-        <v>-92.37</v>
+        <v>-480.73</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -1647,25 +1623,25 @@
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" s="2" t="n">
-        <v>43234</v>
+        <v>43221</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Local Utility Co</t>
+          <t>Highland Apartments</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" s="3" t="n">
-        <v>-349.01</v>
+        <v>-413.69</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -1676,13 +1652,9 @@
       <c r="A37" t="n">
         <v>36</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Check 123</t>
-        </is>
-      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" s="2" t="n">
-        <v>43237</v>
+        <v>43226</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1700,7 +1672,7 @@
         </is>
       </c>
       <c r="G37" s="3" t="n">
-        <v>-56.51</v>
+        <v>-679.88</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1717,11 +1689,11 @@
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" s="2" t="n">
-        <v>43245</v>
+        <v>43226</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>United States Treasury</t>
+          <t>City of San Francisco</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1731,11 +1703,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Federal Taxes</t>
+          <t>Local Taxes</t>
         </is>
       </c>
       <c r="G38" s="3" t="n">
-        <v>-648.36</v>
+        <v>-632.9400000000001</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1752,25 +1724,25 @@
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" s="2" t="n">
-        <v>43248</v>
+        <v>43226</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Highland Apartments</t>
+          <t>Local Utility Co</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" s="3" t="n">
-        <v>-807.98</v>
+        <v>-713.98</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -1783,7 +1755,7 @@
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" s="2" t="n">
-        <v>43248</v>
+        <v>43229</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1801,7 +1773,7 @@
         </is>
       </c>
       <c r="G40" s="3" t="n">
-        <v>-363.95</v>
+        <v>-842.95</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1818,11 +1790,11 @@
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" s="2" t="n">
-        <v>43249</v>
+        <v>43230</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>United States Treasury</t>
+          <t>City of San Francisco</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1832,11 +1804,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Federal Taxes</t>
+          <t>Local Taxes</t>
         </is>
       </c>
       <c r="G41" s="3" t="n">
-        <v>-486.95</v>
+        <v>-594.61</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1853,25 +1825,21 @@
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" s="2" t="n">
-        <v>43249</v>
+        <v>43231</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>City of San Francisco</t>
+          <t>Highland Apartments</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Taxes</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Local Taxes</t>
-        </is>
-      </c>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" s="3" t="n">
-        <v>-718.52</v>
+        <v>-368.86</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1888,21 +1856,25 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" s="2" t="n">
-        <v>43252</v>
+        <v>43233</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Highland Apartments</t>
+          <t>City of San Francisco</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Local Taxes</t>
+        </is>
+      </c>
       <c r="G43" s="3" t="n">
-        <v>-688.11</v>
+        <v>-545.38</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1919,25 +1891,29 @@
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" s="2" t="n">
-        <v>43254</v>
+        <v>43236</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Local Utility Co</t>
+          <t>United States Treasury</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Federal Taxes</t>
+        </is>
+      </c>
       <c r="G44" s="3" t="n">
-        <v>-660.45</v>
+        <v>-155.02</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -1950,7 +1926,7 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" s="2" t="n">
-        <v>43255</v>
+        <v>43242</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1968,7 +1944,7 @@
         </is>
       </c>
       <c r="G45" s="3" t="n">
-        <v>-850.03</v>
+        <v>-68.77</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1983,27 +1959,35 @@
       <c r="A46" t="n">
         <v>45</v>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Check 1105</t>
+        </is>
+      </c>
       <c r="C46" s="2" t="n">
-        <v>43264</v>
+        <v>43246</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Local Utility Co</t>
+          <t>City of San Francisco</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Local Taxes</t>
+        </is>
+      </c>
       <c r="G46" s="3" t="n">
-        <v>-826.83</v>
+        <v>-978.53</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -2016,7 +2000,7 @@
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" s="2" t="n">
-        <v>43265</v>
+        <v>43246</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2030,7 +2014,7 @@
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" s="3" t="n">
-        <v>-983.9400000000001</v>
+        <v>-862.15</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2047,25 +2031,25 @@
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" s="2" t="n">
-        <v>43266</v>
+        <v>43250</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Highland Apartments</t>
+          <t>Local Utility Co</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" s="3" t="n">
-        <v>-456.88</v>
+        <v>-928.67</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -2078,7 +2062,7 @@
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" s="2" t="n">
-        <v>43268</v>
+        <v>43253</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2092,7 +2076,7 @@
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" s="3" t="n">
-        <v>-695.9400000000001</v>
+        <v>-189.08</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2109,7 +2093,7 @@
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" s="2" t="n">
-        <v>43268</v>
+        <v>43255</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2127,7 +2111,7 @@
         </is>
       </c>
       <c r="G50" s="3" t="n">
-        <v>-871.03</v>
+        <v>-808.99</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2144,21 +2128,25 @@
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" s="2" t="n">
-        <v>43269</v>
+        <v>43257</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Highland Apartments</t>
+          <t>City of San Francisco</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Local Taxes</t>
+        </is>
+      </c>
       <c r="G51" s="3" t="n">
-        <v>-445.39</v>
+        <v>-618</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2175,25 +2163,25 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" s="2" t="n">
-        <v>43272</v>
+        <v>43266</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Local Utility Co</t>
+          <t>Highland Apartments</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" s="3" t="n">
-        <v>-25.69</v>
+        <v>-547.25</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -2206,7 +2194,7 @@
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" s="2" t="n">
-        <v>43276</v>
+        <v>43266</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2220,7 +2208,7 @@
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" s="3" t="n">
-        <v>-27.25</v>
+        <v>-257.1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2237,7 +2225,7 @@
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" s="2" t="n">
-        <v>43280</v>
+        <v>43269</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2251,7 +2239,7 @@
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" s="3" t="n">
-        <v>-581.85</v>
+        <v>-158.82</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2268,7 +2256,7 @@
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" s="2" t="n">
-        <v>43280</v>
+        <v>43270</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2282,7 +2270,7 @@
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" s="3" t="n">
-        <v>-595.6</v>
+        <v>-377.6</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2299,21 +2287,25 @@
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" s="2" t="n">
-        <v>43282</v>
+        <v>43271</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Highland Apartments</t>
+          <t>United States Treasury</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Federal Taxes</t>
+        </is>
+      </c>
       <c r="G56" s="3" t="n">
-        <v>-645.35</v>
+        <v>-709.87</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2330,7 +2322,7 @@
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" s="2" t="n">
-        <v>43288</v>
+        <v>43286</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2344,7 +2336,7 @@
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" s="3" t="n">
-        <v>-175.15</v>
+        <v>-126.46</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2361,21 +2353,25 @@
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" s="2" t="n">
-        <v>43298</v>
+        <v>43288</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Highland Apartments</t>
+          <t>United States Treasury</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Federal Taxes</t>
+        </is>
+      </c>
       <c r="G58" s="3" t="n">
-        <v>-904.85</v>
+        <v>-254.72</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2392,21 +2388,25 @@
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" s="2" t="n">
-        <v>43300</v>
+        <v>43294</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Highland Apartments</t>
+          <t>United States Treasury</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Federal Taxes</t>
+        </is>
+      </c>
       <c r="G59" s="3" t="n">
-        <v>-278.31</v>
+        <v>-293.65</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2423,36 +2423,28 @@
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" s="2" t="n">
-        <v>43301</v>
+        <v>43296</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>United States Treasury</t>
+          <t>Highland Apartments</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Taxes</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Federal Taxes</t>
-        </is>
-      </c>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" s="3" t="n">
-        <v>-594.1799999999999</v>
+        <v>-761.7</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
           <t>Discretionary</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Memo 12</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
     </row>
@@ -2462,7 +2454,7 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" s="2" t="n">
-        <v>43307</v>
+        <v>43299</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2480,7 +2472,7 @@
         </is>
       </c>
       <c r="G61" s="3" t="n">
-        <v>-883.33</v>
+        <v>-536.8099999999999</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2497,7 +2489,7 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" s="2" t="n">
-        <v>43307</v>
+        <v>43304</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2511,7 +2503,7 @@
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" s="3" t="n">
-        <v>-716.39</v>
+        <v>-120.21</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2526,27 +2518,27 @@
       <c r="A63" t="n">
         <v>62</v>
       </c>
-      <c r="B63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Check 896</t>
+        </is>
+      </c>
       <c r="C63" s="2" t="n">
-        <v>43319</v>
+        <v>43306</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>City of San Francisco</t>
+          <t>Highland Apartments</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Taxes</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Local Taxes</t>
-        </is>
-      </c>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" s="3" t="n">
-        <v>-289.31</v>
+        <v>-553.6799999999999</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2563,11 +2555,11 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" s="2" t="n">
-        <v>43320</v>
+        <v>43306</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>United States Treasury</t>
+          <t>City of San Francisco</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2577,11 +2569,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Federal Taxes</t>
+          <t>Local Taxes</t>
         </is>
       </c>
       <c r="G64" s="3" t="n">
-        <v>-8.52</v>
+        <v>-654.79</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2596,13 +2588,9 @@
       <c r="A65" t="n">
         <v>64</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Check 99</t>
-        </is>
-      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" s="2" t="n">
-        <v>43320</v>
+        <v>43306</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2616,7 +2604,7 @@
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" s="3" t="n">
-        <v>-235.27</v>
+        <v>-508.78</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2633,21 +2621,25 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" s="2" t="n">
-        <v>43324</v>
+        <v>43308</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Highland Apartments</t>
+          <t>City of San Francisco</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Local Taxes</t>
+        </is>
+      </c>
       <c r="G66" s="3" t="n">
-        <v>-729.98</v>
+        <v>-797.97</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2664,29 +2656,25 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" s="2" t="n">
-        <v>43328</v>
+        <v>43308</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>United States Treasury</t>
+          <t>Local Utility Co</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Taxes</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Federal Taxes</t>
-        </is>
-      </c>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" s="3" t="n">
-        <v>-24</v>
+        <v>-690.54</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -2699,7 +2687,7 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" s="2" t="n">
-        <v>43333</v>
+        <v>43310</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2717,14 +2705,18 @@
         </is>
       </c>
       <c r="G68" s="3" t="n">
-        <v>-262.01</v>
+        <v>-419.58</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
           <t>Discretionary</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Memo 1</t>
+        </is>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
     </row>
@@ -2732,13 +2724,9 @@
       <c r="A69" t="n">
         <v>68</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Check 493</t>
-        </is>
-      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" s="2" t="n">
-        <v>43336</v>
+        <v>43312</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2756,7 +2744,7 @@
         </is>
       </c>
       <c r="G69" s="3" t="n">
-        <v>-510.01</v>
+        <v>-315.96</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2773,7 +2761,7 @@
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" s="2" t="n">
-        <v>43337</v>
+        <v>43314</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2791,7 +2779,7 @@
         </is>
       </c>
       <c r="G70" s="3" t="n">
-        <v>-885.05</v>
+        <v>-751.59</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -2808,7 +2796,7 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" s="2" t="n">
-        <v>43337</v>
+        <v>43321</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2826,7 +2814,7 @@
         </is>
       </c>
       <c r="G71" s="3" t="n">
-        <v>-991.96</v>
+        <v>-477.2</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2843,25 +2831,25 @@
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" s="2" t="n">
-        <v>43339</v>
+        <v>43325</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Local Utility Co</t>
+          <t>Highland Apartments</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" s="3" t="n">
-        <v>-399.85</v>
+        <v>-684.3</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -2874,25 +2862,29 @@
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" s="2" t="n">
-        <v>43347</v>
+        <v>43329</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Local Utility Co</t>
+          <t>City of San Francisco</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Local Taxes</t>
+        </is>
+      </c>
       <c r="G73" s="3" t="n">
-        <v>-985.48</v>
+        <v>-540.41</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -2905,7 +2897,7 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" s="2" t="n">
-        <v>43361</v>
+        <v>43339</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2919,7 +2911,7 @@
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" s="3" t="n">
-        <v>-563.0700000000001</v>
+        <v>-877.46</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -2936,29 +2928,25 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" s="2" t="n">
-        <v>43365</v>
+        <v>43340</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>United States Treasury</t>
+          <t>Local Utility Co</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Taxes</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Federal Taxes</t>
-        </is>
-      </c>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" s="3" t="n">
-        <v>-226.57</v>
+        <v>-301.2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -2971,25 +2959,21 @@
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" s="2" t="n">
-        <v>43366</v>
+        <v>43343</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>United States Treasury</t>
+          <t>Highland Apartments</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Taxes</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Federal Taxes</t>
-        </is>
-      </c>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" s="3" t="n">
-        <v>-544.99</v>
+        <v>-284.97</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3006,25 +2990,29 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Check 622</t>
+          <t>Check 464</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
-        <v>43367</v>
+        <v>43343</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Highland Apartments</t>
+          <t>City of San Francisco</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Local Taxes</t>
+        </is>
+      </c>
       <c r="G77" s="3" t="n">
-        <v>-354.15</v>
+        <v>-374.63</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3041,25 +3029,29 @@
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" s="2" t="n">
-        <v>43368</v>
+        <v>43346</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Local Utility Co</t>
+          <t>City of San Francisco</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Local Taxes</t>
+        </is>
+      </c>
       <c r="G78" s="3" t="n">
-        <v>-233.54</v>
+        <v>-152.79</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -3072,25 +3064,29 @@
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" s="2" t="n">
-        <v>43369</v>
+        <v>43347</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Local Utility Co</t>
+          <t>City of San Francisco</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Local Taxes</t>
+        </is>
+      </c>
       <c r="G79" s="3" t="n">
-        <v>-540.58</v>
+        <v>-180.45</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -3103,29 +3099,25 @@
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" s="2" t="n">
-        <v>43377</v>
+        <v>43347</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>City of San Francisco</t>
+          <t>Local Utility Co</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Taxes</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Local Taxes</t>
-        </is>
-      </c>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" s="3" t="n">
-        <v>-957.48</v>
+        <v>-420.36</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -3138,11 +3130,11 @@
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" s="2" t="n">
-        <v>43381</v>
+        <v>43349</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>United States Treasury</t>
+          <t>City of San Francisco</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3152,11 +3144,11 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Federal Taxes</t>
+          <t>Local Taxes</t>
         </is>
       </c>
       <c r="G81" s="3" t="n">
-        <v>-693.28</v>
+        <v>-884.89</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3173,7 +3165,7 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" s="2" t="n">
-        <v>43384</v>
+        <v>43349</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3191,7 +3183,7 @@
         </is>
       </c>
       <c r="G82" s="3" t="n">
-        <v>-346.31</v>
+        <v>-35.52</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3208,36 +3200,28 @@
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" s="2" t="n">
-        <v>43387</v>
+        <v>43349</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>City of San Francisco</t>
+          <t>Local Utility Co</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Taxes</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Local Taxes</t>
-        </is>
-      </c>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
       <c r="G83" s="3" t="n">
-        <v>-366.09</v>
+        <v>-949.3200000000001</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Discretionary</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Memo 17</t>
-        </is>
-      </c>
+          <t>Essential</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
     </row>
@@ -3247,25 +3231,25 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" s="2" t="n">
-        <v>43390</v>
+        <v>43354</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Local Utility Co</t>
+          <t>Highland Apartments</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" s="3" t="n">
-        <v>-691.77</v>
+        <v>-367.58</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -3278,29 +3262,25 @@
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" s="2" t="n">
-        <v>43393</v>
+        <v>43358</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>United States Treasury</t>
+          <t>Local Utility Co</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Taxes</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Federal Taxes</t>
-        </is>
-      </c>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
       <c r="G85" s="3" t="n">
-        <v>-726.39</v>
+        <v>-317.19</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -3313,7 +3293,7 @@
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" s="2" t="n">
-        <v>43395</v>
+        <v>43362</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3331,7 +3311,7 @@
         </is>
       </c>
       <c r="G86" s="3" t="n">
-        <v>-864.55</v>
+        <v>-117.16</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3348,11 +3328,11 @@
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" s="2" t="n">
-        <v>43397</v>
+        <v>43364</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>City of San Francisco</t>
+          <t>United States Treasury</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3362,11 +3342,11 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Local Taxes</t>
+          <t>Federal Taxes</t>
         </is>
       </c>
       <c r="G87" s="3" t="n">
-        <v>-734.11</v>
+        <v>-681.15</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -3383,21 +3363,25 @@
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" s="2" t="n">
-        <v>43398</v>
+        <v>43367</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Highland Apartments</t>
+          <t>United States Treasury</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Federal Taxes</t>
+        </is>
+      </c>
       <c r="G88" s="3" t="n">
-        <v>-651.2</v>
+        <v>-673.48</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -3414,7 +3398,7 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" s="2" t="n">
-        <v>43399</v>
+        <v>43368</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3432,7 +3416,7 @@
         </is>
       </c>
       <c r="G89" s="3" t="n">
-        <v>-166.69</v>
+        <v>-453.06</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -3449,25 +3433,29 @@
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" s="2" t="n">
-        <v>43402</v>
+        <v>43380</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Local Utility Co</t>
+          <t>City of San Francisco</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Local Taxes</t>
+        </is>
+      </c>
       <c r="G90" s="3" t="n">
-        <v>-370.33</v>
+        <v>-540.72</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -3478,31 +3466,31 @@
       <c r="A91" t="n">
         <v>90</v>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Check 744</t>
-        </is>
-      </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" s="2" t="n">
-        <v>43403</v>
+        <v>43385</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Local Utility Co</t>
+          <t>United States Treasury</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Federal Taxes</t>
+        </is>
+      </c>
       <c r="G91" s="3" t="n">
-        <v>-482.18</v>
+        <v>-603.55</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -3513,27 +3501,27 @@
       <c r="A92" t="n">
         <v>91</v>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Check 804</t>
-        </is>
-      </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" s="2" t="n">
-        <v>43405</v>
+        <v>43385</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Highland Apartments</t>
+          <t>City of San Francisco</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Local Taxes</t>
+        </is>
+      </c>
       <c r="G92" s="3" t="n">
-        <v>-933.91</v>
+        <v>-550.08</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -3550,11 +3538,11 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" s="2" t="n">
-        <v>43406</v>
+        <v>43391</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>United States Treasury</t>
+          <t>City of San Francisco</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3564,11 +3552,11 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Federal Taxes</t>
+          <t>Local Taxes</t>
         </is>
       </c>
       <c r="G93" s="3" t="n">
-        <v>-449.88</v>
+        <v>-621.65</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -3585,7 +3573,7 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" s="2" t="n">
-        <v>43411</v>
+        <v>43391</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3599,7 +3587,7 @@
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" s="3" t="n">
-        <v>-477.53</v>
+        <v>-573.38</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -3616,21 +3604,25 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" s="2" t="n">
-        <v>43419</v>
+        <v>43392</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Highland Apartments</t>
+          <t>United States Treasury</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Federal Taxes</t>
+        </is>
+      </c>
       <c r="G95" s="3" t="n">
-        <v>-646.5599999999999</v>
+        <v>-64.01000000000001</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -3647,25 +3639,25 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" s="2" t="n">
-        <v>43422</v>
+        <v>43394</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Highland Apartments</t>
+          <t>Local Utility Co</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" s="3" t="n">
-        <v>-294.17</v>
+        <v>-961.9</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -3678,7 +3670,7 @@
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" s="2" t="n">
-        <v>43422</v>
+        <v>43401</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3692,7 +3684,7 @@
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" s="3" t="n">
-        <v>-235.02</v>
+        <v>-169.43</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -3707,9 +3699,13 @@
       <c r="A98" t="n">
         <v>97</v>
       </c>
-      <c r="B98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Check 173</t>
+        </is>
+      </c>
       <c r="C98" s="2" t="n">
-        <v>43423</v>
+        <v>43402</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3723,7 +3719,7 @@
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" s="3" t="n">
-        <v>-624.78</v>
+        <v>-193.85</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -3740,7 +3736,7 @@
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" s="2" t="n">
-        <v>43425</v>
+        <v>43409</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3754,14 +3750,18 @@
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" s="3" t="n">
-        <v>-334.24</v>
+        <v>-630.17</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
           <t>Discretionary</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Memo 20</t>
+        </is>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
     </row>
@@ -3771,21 +3771,25 @@
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" s="2" t="n">
-        <v>43426</v>
+        <v>43410</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Highland Apartments</t>
+          <t>United States Treasury</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Federal Taxes</t>
+        </is>
+      </c>
       <c r="G100" s="3" t="n">
-        <v>-632.48</v>
+        <v>-462.47</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -3802,25 +3806,25 @@
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" s="2" t="n">
-        <v>43426</v>
+        <v>43413</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Highland Apartments</t>
+          <t>Local Utility Co</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" s="3" t="n">
-        <v>-961.04</v>
+        <v>-178.27</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -3833,29 +3837,25 @@
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" s="2" t="n">
-        <v>43427</v>
+        <v>43415</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>United States Treasury</t>
+          <t>Local Utility Co</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Taxes</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Federal Taxes</t>
-        </is>
-      </c>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
       <c r="G102" s="3" t="n">
-        <v>-453.66</v>
+        <v>-770.97</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -3868,21 +3868,25 @@
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" s="2" t="n">
-        <v>43431</v>
+        <v>43416</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Highland Apartments</t>
+          <t>United States Treasury</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Federal Taxes</t>
+        </is>
+      </c>
       <c r="G103" s="3" t="n">
-        <v>-119.11</v>
+        <v>-740.34</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -3899,7 +3903,7 @@
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" s="2" t="n">
-        <v>43439</v>
+        <v>43418</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -3917,7 +3921,7 @@
         </is>
       </c>
       <c r="G104" s="3" t="n">
-        <v>-666.0700000000001</v>
+        <v>-444.33</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -3934,25 +3938,21 @@
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" s="2" t="n">
-        <v>43443</v>
+        <v>43422</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>City of San Francisco</t>
+          <t>Highland Apartments</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Taxes</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Local Taxes</t>
-        </is>
-      </c>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" s="3" t="n">
-        <v>-4.54</v>
+        <v>-470.38</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -3969,29 +3969,25 @@
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" s="2" t="n">
-        <v>43447</v>
+        <v>43437</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>United States Treasury</t>
+          <t>Local Utility Co</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Taxes</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Federal Taxes</t>
-        </is>
-      </c>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
       <c r="G106" s="3" t="n">
-        <v>-55.22</v>
+        <v>-369.72</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -4002,9 +3998,13 @@
       <c r="A107" t="n">
         <v>106</v>
       </c>
-      <c r="B107" t="inlineStr"/>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Check 592</t>
+        </is>
+      </c>
       <c r="C107" s="2" t="n">
-        <v>43452</v>
+        <v>43438</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" s="3" t="n">
-        <v>-485.11</v>
+        <v>-643.42</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -4035,21 +4035,25 @@
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" s="2" t="n">
-        <v>43454</v>
+        <v>43440</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Highland Apartments</t>
+          <t>United States Treasury</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Federal Taxes</t>
+        </is>
+      </c>
       <c r="G108" s="3" t="n">
-        <v>-15.98</v>
+        <v>-435.86</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -4066,11 +4070,11 @@
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" s="2" t="n">
-        <v>43456</v>
+        <v>43442</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>City of San Francisco</t>
+          <t>United States Treasury</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4080,11 +4084,11 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Local Taxes</t>
+          <t>Federal Taxes</t>
         </is>
       </c>
       <c r="G109" s="3" t="n">
-        <v>-913.01</v>
+        <v>-986.01</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -4094,6 +4098,204 @@
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" s="2" t="n">
+        <v>43442</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Local Utility Co</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" s="3" t="n">
+        <v>-171.96</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Essential</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" s="2" t="n">
+        <v>43443</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>City of San Francisco</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Local Taxes</t>
+        </is>
+      </c>
+      <c r="G111" s="3" t="n">
+        <v>-532.38</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" s="2" t="n">
+        <v>43445</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>City of San Francisco</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Local Taxes</t>
+        </is>
+      </c>
+      <c r="G112" s="3" t="n">
+        <v>-282.56</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" s="2" t="n">
+        <v>43459</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>United States Treasury</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Federal Taxes</t>
+        </is>
+      </c>
+      <c r="G113" s="3" t="n">
+        <v>-995.54</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" s="2" t="n">
+        <v>43459</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Local Utility Co</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" s="3" t="n">
+        <v>-935.75</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Essential</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" s="2" t="n">
+        <v>43462</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Local Utility Co</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" s="3" t="n">
+        <v>-558.1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Essential</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
